--- a/B_Help_menu_crash.xlsx
+++ b/B_Help_menu_crash.xlsx
@@ -12,26 +12,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>ID</t>
   </si>
   <si>
+    <t>Test ID</t>
+  </si>
+  <si>
     <t>B</t>
   </si>
   <si>
+    <t>B01</t>
+  </si>
+  <si>
     <t>User Stories</t>
   </si>
   <si>
-    <t>Test ID</t>
-  </si>
-  <si>
     <t>As an expert gamer, I would like to acces the help menu without it crashing, so that I can learn how to use power ups and upgrades.</t>
   </si>
   <si>
-    <t>B01</t>
-  </si>
-  <si>
     <t>As a novice gamer, I would like for the game not to crash when I die so that I can start a new game immediately.</t>
   </si>
   <si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>Test to see if trying to get into the help menu causes crash</t>
+  </si>
+  <si>
+    <t>Tester</t>
   </si>
   <si>
     <t>Procedure</t>
@@ -152,11 +155,11 @@
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -170,7 +173,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border/>
     <border>
       <left style="thin">
@@ -202,11 +205,25 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -216,48 +233,54 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -266,16 +289,16 @@
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
@@ -503,56 +526,56 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
+      <c r="A2" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="9"/>
+      <c r="D2" s="8"/>
     </row>
     <row r="3">
       <c r="A3" s="1"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="9"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="8"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="9"/>
+      <c r="D4" s="8"/>
     </row>
     <row r="5">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="9"/>
+      <c r="D5" s="8"/>
     </row>
     <row r="6">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -577,11 +600,11 @@
   </cols>
   <sheetData>
     <row r="1" ht="21.75" customHeight="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>5</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="11"/>
@@ -609,10 +632,10 @@
       <c r="Z1" s="12"/>
     </row>
     <row r="2" ht="21.75" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="10"/>
@@ -636,10 +659,10 @@
       <c r="Z2" s="12"/>
     </row>
     <row r="3" ht="21.75" customHeight="1">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="10"/>
       <c r="D3" s="11"/>
       <c r="E3" s="12"/>
@@ -666,10 +689,10 @@
       <c r="Z3" s="12"/>
     </row>
     <row r="4" ht="21.75" customHeight="1">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="10"/>
@@ -701,389 +724,405 @@
       <c r="A5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="11"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
     </row>
     <row r="6" ht="21.75" customHeight="1">
       <c r="A6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="10"/>
       <c r="D6" s="11"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-    </row>
-    <row r="7" ht="21.75" customHeight="1">
-      <c r="A7" s="15" t="s">
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" ht="17.25" customHeight="1">
+      <c r="A7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" ht="21.75" customHeight="1">
+      <c r="A8" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="B8" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="C8" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="19">
+      <c r="D8" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="21">
         <v>1.0</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="20" t="s">
+      <c r="B9" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="22">
+      <c r="C9" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="24">
         <v>2.0</v>
       </c>
-      <c r="B9" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="20" t="s">
+      <c r="B10" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="22">
+      <c r="C10" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="24">
         <v>3.0</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="20" t="s">
+      <c r="B11" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="22">
+      <c r="C11" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="24">
         <v>4.0</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="20" t="s">
+      <c r="B12" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="22">
+      <c r="C12" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="24">
         <v>5.0</v>
       </c>
-      <c r="B12" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="20" t="s">
+      <c r="B13" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="22">
+      <c r="C13" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="24">
         <v>6.0</v>
       </c>
-      <c r="B13" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="22">
+      <c r="B14" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="24">
         <v>7.0</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="20" t="s">
+      <c r="B15" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="22">
+      <c r="C15" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="24">
         <v>8.0</v>
       </c>
-      <c r="B15" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="20" t="s">
+      <c r="B16" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-    </row>
-    <row r="16" ht="21.75" customHeight="1">
-      <c r="A16" s="23" t="s">
+      <c r="C16" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+    </row>
+    <row r="17" ht="21.75" customHeight="1">
+      <c r="A17" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
+      <c r="B17" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
     </row>
     <row r="18">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
     </row>
     <row r="19">
-      <c r="A19" s="9"/>
+      <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
     </row>
     <row r="20">
-      <c r="A20" s="9"/>
+      <c r="A20" s="8"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
     </row>
     <row r="21">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
     </row>
     <row r="22">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
     </row>
     <row r="23">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
     </row>
     <row r="24">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
     </row>
     <row r="25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
     </row>
     <row r="26">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
     </row>
     <row r="27">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
     </row>
     <row r="28">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
